--- a/lot/副本测试数据.xlsx
+++ b/lot/副本测试数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25771" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25770" uniqueCount="41">
   <si>
     <t>ALG</t>
   </si>
@@ -189,10 +189,6 @@
   <si>
     <t>志愿10</t>
   </si>
-  <si>
-    <t>志愿结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -234,18 +230,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -276,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,7 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -306,12 +295,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -353,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,9 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2145"/>
+  <dimension ref="A1:N2145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -617,11 +611,9 @@
     <col min="12" max="12" width="10.375" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="7.375" customWidth="1"/>
-    <col min="15" max="15" width="6.125" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -664,11 +656,8 @@
       <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>60003757</v>
       </c>
@@ -712,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>60007343</v>
       </c>
@@ -756,7 +745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>60006676</v>
       </c>
@@ -800,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>60006691</v>
       </c>
@@ -844,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>60006943</v>
       </c>
@@ -888,7 +877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>60009327</v>
       </c>
@@ -932,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>60010111</v>
       </c>
@@ -976,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>60010757</v>
       </c>
@@ -1020,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>60011754</v>
       </c>
@@ -1064,7 +1053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>60012121</v>
       </c>
@@ -1108,7 +1097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>60013244</v>
       </c>
@@ -1152,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>60013569</v>
       </c>
@@ -1196,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>60014045</v>
       </c>
@@ -1240,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>60015054</v>
       </c>
@@ -1284,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>60015516</v>
       </c>
